--- a/forecast_summary_B0BZ17BQ4Z.xlsx
+++ b/forecast_summary_B0BZ17BQ4Z.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>9.307938567905545</v>
       </c>
       <c r="D2" t="n">
-        <v>34.68901065791969</v>
+        <v>33.21187837583729</v>
       </c>
       <c r="E2" t="n">
         <v>27</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>7.005138631258538</v>
       </c>
       <c r="D3" t="n">
-        <v>31.57710102710809</v>
+        <v>31.45374156893964</v>
       </c>
       <c r="E3" t="n">
         <v>24</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>4.539935110295857</v>
       </c>
       <c r="D4" t="n">
-        <v>27.94051951248345</v>
+        <v>28.83024307269851</v>
       </c>
       <c r="E4" t="n">
         <v>25</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>1.222617822673898</v>
       </c>
       <c r="D5" t="n">
-        <v>25.35596619819069</v>
+        <v>26.7915680845481</v>
       </c>
       <c r="E5" t="n">
         <v>24</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-2.537485065943929</v>
       </c>
       <c r="D6" t="n">
-        <v>20.36359448918746</v>
+        <v>20.30664274605769</v>
       </c>
       <c r="E6" t="n">
         <v>22</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-5.215611451235925</v>
       </c>
       <c r="D7" t="n">
-        <v>19.52935812324316</v>
+        <v>19.25389393816025</v>
       </c>
       <c r="E7" t="n">
         <v>23</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>-5.481782747064885</v>
       </c>
       <c r="D8" t="n">
-        <v>17.86890245208498</v>
+        <v>20.90239010002843</v>
       </c>
       <c r="E8" t="n">
         <v>23</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-3.839945851302959</v>
       </c>
       <c r="D9" t="n">
-        <v>18.76107673960331</v>
+        <v>19.35620199295184</v>
       </c>
       <c r="E9" t="n">
         <v>23</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>-2.949253881181902</v>
       </c>
       <c r="D10" t="n">
-        <v>20.47837494536899</v>
+        <v>20.97585064927905</v>
       </c>
       <c r="E10" t="n">
         <v>22</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-5.661010836459194</v>
       </c>
       <c r="D11" t="n">
-        <v>18.12101902921766</v>
+        <v>19.70190752415466</v>
       </c>
       <c r="E11" t="n">
         <v>22</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-11.99174040079241</v>
       </c>
       <c r="D12" t="n">
-        <v>14.36524644676939</v>
+        <v>11.44376804832766</v>
       </c>
       <c r="E12" t="n">
         <v>23</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-18.13700096093957</v>
       </c>
       <c r="D13" t="n">
-        <v>6.190264171875481</v>
+        <v>3.55654167645335</v>
       </c>
       <c r="E13" t="n">
         <v>23</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-19.45534472562451</v>
       </c>
       <c r="D14" t="n">
-        <v>6.633150133835162</v>
+        <v>5.698277177482413</v>
       </c>
       <c r="E14" t="n">
         <v>22</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-15.16169919857426</v>
       </c>
       <c r="D15" t="n">
-        <v>7.62634805228836</v>
+        <v>9.991113759569842</v>
       </c>
       <c r="E15" t="n">
         <v>21</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-9.656289400442372</v>
       </c>
       <c r="D16" t="n">
-        <v>13.92816691635725</v>
+        <v>15.07184755040967</v>
       </c>
       <c r="E16" t="n">
         <v>22</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-8.237082665855716</v>
       </c>
       <c r="D17" t="n">
-        <v>17.11070282776238</v>
+        <v>17.68958031143949</v>
       </c>
       <c r="E17" t="n">
         <v>20</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-11.361860199937</v>
       </c>
       <c r="D18" t="n">
-        <v>13.05734214724494</v>
+        <v>11.29999534467894</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-14.13956960699595</v>
       </c>
       <c r="D19" t="n">
-        <v>9.476951585899691</v>
+        <v>10.47018255768119</v>
       </c>
       <c r="E19" t="n">
         <v>19</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-12.21783939215824</v>
       </c>
       <c r="D20" t="n">
-        <v>11.81980963101702</v>
+        <v>11.49925677939384</v>
       </c>
       <c r="E20" t="n">
         <v>20</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-7.361905031059534</v>
       </c>
       <c r="D21" t="n">
-        <v>17.03325461511687</v>
+        <v>15.90802427429405</v>
       </c>
       <c r="E21" t="n">
         <v>19</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B650M K</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
     </row>
